--- a/data/trans_orig/P14A27-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BAF8D16-FAD8-4E09-A1F3-3B174C4FBF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C357D96-A9EC-48AE-AF38-8DDD048FAB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA146F51-D2BA-4626-ABFC-22947866720F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64EF592A-E971-4CC1-AE35-B169340BE09C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>28,21%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>71,79%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>37,81%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>62,19%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -228,55 +228,55 @@
     <t>30,63%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -297,94 +297,100 @@
     <t>44,07%</t>
   </si>
   <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
     <t>77,0%</t>
   </si>
   <si>
     <t>55,93%</t>
   </si>
   <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>43,59%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>47,97%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>75,58%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>26,0%</t>
@@ -426,55 +432,55 @@
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
 </sst>
 </file>
@@ -886,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000CB89-7BC3-43CF-B023-72F67F6A25E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5686FF-9D60-4625-B129-7623321F72B1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1637,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3F9FEC-8D36-4351-81EA-F9DCC5AB992D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317EE7BF-1513-41A9-B313-6C9B682CED7C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1815,10 +1821,10 @@
         <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -1827,13 +1833,13 @@
         <v>31154</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -1842,13 +1848,13 @@
         <v>42056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1922,13 @@
         <v>2909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1931,13 +1937,13 @@
         <v>8980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1946,13 +1952,13 @@
         <v>11888</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1973,13 @@
         <v>9002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -1982,13 +1988,13 @@
         <v>9741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -1997,13 +2003,13 @@
         <v>18743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2077,13 @@
         <v>974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2086,13 +2092,13 @@
         <v>1083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2101,13 +2107,13 @@
         <v>2057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,10 +2128,10 @@
         <v>2773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>53</v>
@@ -2137,10 +2143,10 @@
         <v>4960</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>53</v>
@@ -2152,10 +2158,10 @@
         <v>7732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>53</v>
@@ -2226,13 +2232,13 @@
         <v>12712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2241,13 +2247,13 @@
         <v>34610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -2256,13 +2262,13 @@
         <v>47323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2283,13 @@
         <v>22676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -2292,13 +2298,13 @@
         <v>45855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -2307,13 +2313,13 @@
         <v>68530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A27-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C357D96-A9EC-48AE-AF38-8DDD048FAB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBF80AC-686B-454C-BF8D-E4F58259C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64EF592A-E971-4CC1-AE35-B169340BE09C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0252D572-8BF7-49C3-A058-F334A7694F87}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>28,21%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>71,79%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>37,81%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>62,19%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -210,7 +210,7 @@
     <t>19,1%</t>
   </si>
   <si>
-    <t>77,65%</t>
+    <t>78,79%</t>
   </si>
   <si>
     <t>67,26%</t>
@@ -222,265 +222,259 @@
     <t>80,9%</t>
   </si>
   <si>
-    <t>22,35%</t>
+    <t>21,21%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cataratas en 2015 (Tasa respuesta: 1,64%)</t>
+    <t>Población que recibe medicación o terapia por cataratas en 2016 (Tasa respuesta: 1,64%)</t>
   </si>
   <si>
     <t>44,75%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>44,07%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
   </si>
   <si>
     <t>55,25%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>55,93%</t>
   </si>
   <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>47,97%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>75,58%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>80,14%</t>
+    <t>65,51%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>56,88%</t>
+    <t>58,08%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>19,86%</t>
+    <t>34,49%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>43,12%</t>
+    <t>41,92%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5686FF-9D60-4625-B129-7623321F72B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4C319F-451D-403E-ABB7-F8156069DBB5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317EE7BF-1513-41A9-B313-6C9B682CED7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6688C24-FAE9-4EF9-B3CD-2D170E677404}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2083,7 +2077,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2092,13 +2086,13 @@
         <v>1083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2107,13 +2101,13 @@
         <v>2057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,10 +2122,10 @@
         <v>2773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>53</v>
@@ -2143,10 +2137,10 @@
         <v>4960</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>53</v>
@@ -2158,10 +2152,10 @@
         <v>7732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>53</v>
@@ -2232,13 +2226,13 @@
         <v>12712</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -2247,13 +2241,13 @@
         <v>34610</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -2262,13 +2256,13 @@
         <v>47323</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2277,13 @@
         <v>22676</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -2298,13 +2292,13 @@
         <v>45855</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -2313,13 +2307,13 @@
         <v>68530</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
